--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_7.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_7.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01095199584960938</v>
+        <v>0.0006268024444580078</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004060268402099609</v>
+        <v>0.0007231235504150391</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007770061492919922</v>
+        <v>0.0008211135864257812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (1, 2), (0, 0), (1, 1), (1, 0), (2, 2)]</t>
+          <t>[[0, 2], [0, 1], [1, 2], [0, 0], [1, 1], [1, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -934,110 +934,120 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>0.9997046993085594</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01699042320251465</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.009095191955566406</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_7.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_7.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006268024444580078</v>
+        <v>0.0002338886260986328</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007231235504150391</v>
+        <v>0.0001301765441894531</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0008211135864257812</v>
+        <v>0.005353927612304688</v>
       </c>
     </row>
     <row r="8">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.009095191955566406</v>
+        <v>0.01037883758544922</v>
       </c>
     </row>
     <row r="73">
